--- a/docs/componentes/Descripcion_de_Habitaciones.xlsx
+++ b/docs/componentes/Descripcion_de_Habitaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaniyDiego\www\componentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaniyDiegoWeb\docs\componentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>SUITE PRESIDENCIAL : SUITE 1 - SUITE2</t>
   </si>
@@ -183,13 +183,40 @@
   </si>
   <si>
     <t>Amplia terraza con piscina frente al mar.</t>
+  </si>
+  <si>
+    <t>*EL PRECIO YA INCLUYE TODOS LOS IMPUESTOS</t>
+  </si>
+  <si>
+    <t>USD 220 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>USD 220 por persona  (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>USD 280 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>USD 254 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>USD 178 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>USD 258 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>USD 340 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>*El precio incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +249,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +267,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -258,12 +304,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -538,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O57"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,451 +608,583 @@
     <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="J2" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="I8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="J15" s="1" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="I19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="6"/>
-      <c r="J28" s="1" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="6"/>
+      <c r="I32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="6"/>
+      <c r="I33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="J38" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="I43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="I44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="J48" s="1" t="s">
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="I54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="I55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="4" t="s">
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J52" s="4" t="s">
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53" s="4" t="s">
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J54" s="4" t="s">
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" s="4" t="s">
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="I63" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="J56" s="4" t="s">
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I64" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J57" s="4" t="s">
+    <row r="65" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I65" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/componentes/Descripcion_de_Habitaciones.xlsx
+++ b/docs/componentes/Descripcion_de_Habitaciones.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
-  <si>
-    <t>SUITE PRESIDENCIAL : SUITE 1 - SUITE2</t>
-  </si>
-  <si>
-    <t>SUITE ROYAL : SUITE 3 - 4 - 5 -6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Ubicada en un segundo piso con maravillosa vista al mar.</t>
   </si>
@@ -65,12 +59,6 @@
     <t>Internet inalámbrico (WiFi).</t>
   </si>
   <si>
-    <t>BUNGALOWS FAMILIARES : 4 - 10 - 11 - 12 - 13</t>
-  </si>
-  <si>
-    <t>BUNGALOW MATRIMONIAL : 5 - 6 - 7 - 8 - 9 - 14 - 15 - 16 - 17 -18</t>
-  </si>
-  <si>
     <t>Terraza con cómodos cojines, hamaca y mesa con cuatro sillas.</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>Ambas con ventilador y baño completo y teléfono.</t>
   </si>
   <si>
-    <t>HABITACIÓN ESTÁNDAR 5A - 6A - 7A - 8A - 9A - 14A - 15A - 16A -18A</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUNGALOW CLÁSICO : 31 A - 31 B </t>
   </si>
   <si>
@@ -210,13 +195,153 @@
   </si>
   <si>
     <t>*El precio incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUITE PRESIDENCIAL : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>SUITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>SUITE2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SUITE ROYAL :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SUITE 3 - 4 - 5 -6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BUNGALOWS FAMILIARES :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 10 - 11 - 12 - 13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BUNGALOW MATRIMONIAL :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - 6 - 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 8 - 9 - 14 - 15 - 16 - 17 -18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HABITACIÓN ESTÁNDAR 5A - 6A - 7A - 8A - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 14A - 15A - 16A -18A</t>
+    </r>
+  </si>
+  <si>
+    <t>USD 192 por persona (3dias/2noches)</t>
+  </si>
+  <si>
+    <t>Ubicada en segunda fila y segundo piso al lado del Gimnasio.</t>
+  </si>
+  <si>
+    <t>BUNGALOW CLÁSICO: 36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +377,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -295,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -309,6 +442,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,9 +742,9 @@
     <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -624,11 +758,10 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -642,252 +775,250 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="10"/>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="H8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="I8" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="I19" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -895,18 +1026,18 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="6"/>
-      <c r="I32" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -914,273 +1045,346 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="6"/>
-      <c r="I33" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="H33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="4" t="s">
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="I43" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="I44" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="H44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="H49" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="H50" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="I54" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="H54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="I55" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="H55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="H60" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="H61" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="H62" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" s="4" t="s">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="I63" s="4" t="s">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I64" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I65" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/componentes/Descripcion_de_Habitaciones.xlsx
+++ b/docs/componentes/Descripcion_de_Habitaciones.xlsx
@@ -194,9 +194,6 @@
     <t>USD 340 por persona (3dias/2noches)</t>
   </si>
   <si>
-    <t>*El precio incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SUITE PRESIDENCIAL : </t>
     </r>
@@ -277,32 +274,6 @@
   </si>
   <si>
     <r>
-      <t>BUNGALOW MATRIMONIAL :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 5 - 6 - 7 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>- 8 - 9 - 14 - 15 - 16 - 17 -18</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">HABITACIÓN ESTÁNDAR 5A - 6A - 7A - 8A - </t>
     </r>
     <r>
@@ -336,12 +307,62 @@
   <si>
     <t>BUNGALOW CLÁSICO: 36</t>
   </si>
+  <si>
+    <r>
+      <t>BUNGALOW MATRIMONIAL : 5 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6 - 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 8 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 14 - 15 - 16 - 17 -18</t>
+    </r>
+  </si>
+  <si>
+    <t>*El precio es por persona e incluye desayuno buffet, almuerzo a la carta (entrada, segundo y postre), cena a la carta (entrada, segundo y postre)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +410,19 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -428,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -442,7 +476,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +769,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -778,14 +813,14 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -896,17 +931,17 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1018,7 +1053,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1026,12 +1061,12 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
@@ -1113,7 +1148,7 @@
       <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="2"/>
@@ -1122,7 +1157,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1140,7 +1175,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="H44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1165,7 +1200,7 @@
         <v>29</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
